--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="20115" windowHeight="7800" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="20115" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="constructora" sheetId="2" r:id="rId1"/>
@@ -553,9 +553,6 @@
     <t xml:space="preserve">is a long established fact that a reader will be distracted by the readable content of a page when looking at its layout. The point of using Lorem Ipsum is that it </t>
   </si>
   <si>
-    <t xml:space="preserve">TS – CONST – property cartagena  </t>
-  </si>
-  <si>
     <t>el manzano 1 condominio 6</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   <si>
     <t>MAZUREN,
 SANTA BÁRBARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS – CONST – PROPERTY CARTAGENA  </t>
   </si>
 </sst>
 </file>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>50</v>
@@ -1229,7 +1229,7 @@
         <v>57</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>52</v>
@@ -1286,7 +1286,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL2" s="2">
         <v>200000000</v>
@@ -1346,7 +1346,7 @@
         <v>66</v>
       </c>
       <c r="BE2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>87</v>
@@ -1555,7 +1555,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V6:V7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,7 +1916,7 @@
         <v>126</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W2" s="12" t="s">
         <v>171</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ2" s="11">
         <v>1016041976</v>
@@ -2024,7 +2024,7 @@
         <v>157</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
